--- a/licitacion nestle.xlsx era ronda.xlsx
+++ b/licitacion nestle.xlsx era ronda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D3DB2A-D2C0-4067-9E6A-9E51CC800AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050143B5-77F6-4B56-87A6-9D3FC127B152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00B166C5-074C-4E63-A41E-6ABC38912562}"/>
   </bookViews>
@@ -107,7 +107,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;\-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;\-#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -327,7 +327,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -351,16 +351,16 @@
     <xf numFmtId="6" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,7 +678,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,14 +841,14 @@
         <v>8</v>
       </c>
       <c r="B8" s="15">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="16">
         <v>10</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" si="1"/>
@@ -859,11 +859,11 @@
       </c>
       <c r="G8" s="17">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>17520</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -871,14 +871,14 @@
         <v>9</v>
       </c>
       <c r="B9" s="15">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C9" s="16">
         <v>10</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" si="1"/>
@@ -889,11 +889,11 @@
       </c>
       <c r="G9" s="17">
         <f t="shared" si="2"/>
-        <v>2300</v>
+        <v>2160</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>27600</v>
+        <v>25920</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -901,14 +901,14 @@
         <v>10</v>
       </c>
       <c r="B10" s="15">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C10" s="16">
         <v>24.6</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="0"/>
-        <v>62.4</v>
+        <v>58.4</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" si="1"/>
@@ -919,11 +919,11 @@
       </c>
       <c r="G10" s="17">
         <f t="shared" si="2"/>
-        <v>249.6</v>
+        <v>233.6</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="3"/>
-        <v>2995.2</v>
+        <v>2803.2</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -931,14 +931,14 @@
         <v>11</v>
       </c>
       <c r="B11" s="15">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C11" s="16">
         <v>24.6</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
-        <v>62.4</v>
+        <v>58.4</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" si="1"/>
@@ -949,11 +949,11 @@
       </c>
       <c r="G11" s="17">
         <f t="shared" si="2"/>
-        <v>249.6</v>
+        <v>233.6</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="3"/>
-        <v>2995.2</v>
+        <v>2803.2</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -961,12 +961,12 @@
         <v>12</v>
       </c>
       <c r="B12" s="15">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" si="1"/>
@@ -977,11 +977,11 @@
       </c>
       <c r="G12" s="17">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="3"/>
-        <v>9600</v>
+        <v>9504</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1022,33 +1022,37 @@
         <f>SUM(F3:F13)</f>
         <v>5912</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="19">
         <f>SUM(G3:G13)</f>
-        <v>34042.533333333333</v>
-      </c>
-      <c r="H14" s="21">
+        <v>33822.533333333333</v>
+      </c>
+      <c r="H14" s="19">
         <f>SUM(H3:H13)</f>
-        <v>408510.4</v>
+        <v>405870.4</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="11">
         <f>G14/8</f>
-        <v>4255.3166666666666</v>
+        <v>4227.8166666666666</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="11">
         <f>H14/8</f>
-        <v>51063.8</v>
+        <v>50733.8</v>
+      </c>
+      <c r="F16">
+        <f>E14/12</f>
+        <v>41.055555555555557</v>
       </c>
     </row>
     <row r="18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
